--- a/sinkhole_data/구별/중구.xlsx
+++ b/sinkhole_data/구별/중구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512D04A8-3E99-49A1-99AA-1D9246DEFF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02119FA-5556-4C1F-B413-0BFF4E0427D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,15 +38,15 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -59,7 +59,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lon</t>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,15 +92,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,20 +161,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -199,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -207,17 +185,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,9 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -541,31 +520,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -591,10 +570,10 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>129.03342426658099</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>35.111369470422197</v>
       </c>
     </row>
@@ -620,13 +599,13 @@
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>129.031871418771</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>35.115081317132699</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
